--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value933.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value933.xlsx
@@ -354,7 +354,7 @@
         <v>2.385624703117541</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.644016809723756</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value933.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value933.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.485185011059839</v>
+        <v>1.255308747291565</v>
       </c>
       <c r="B1">
-        <v>2.385624703117541</v>
+        <v>15</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.644016809723756</v>
+        <v>0.8778237700462341</v>
       </c>
       <c r="E1">
-        <v>0.5758642583484594</v>
+        <v>0.9975269436836243</v>
       </c>
     </row>
   </sheetData>
